--- a/qpcr_analyzer/qpcr_template_ottawa_b117.xlsx
+++ b/qpcr_analyzer/qpcr_template_ottawa_b117.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinwellman/Documents/Health/Wastewater/Code/qpcr_analyzer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinwellman/Documents/Health/Wastewater/Code/odm-qpcr-analyzer/qpcr_analyzer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD238D2B-E02A-7641-B7B2-94DB451D23A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5736D7-A727-A948-A5A5-E19A00D797BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{AF8C9865-42B0-5840-ABE3-6A282DAAB00D}"/>
   </bookViews>
@@ -99,15 +99,6 @@
     <t>{siteID}</t>
   </si>
   <si>
-    <t>{value_covn1_0|&lt;MISSING&gt;}</t>
-  </si>
-  <si>
-    <t>{value_covn1_1|&lt;MISSING&gt;}</t>
-  </si>
-  <si>
-    <t>{value_covn1_2|&lt;MISSING&gt;}</t>
-  </si>
-  <si>
     <t>{value_d3_0|&lt;MISSING&gt;}</t>
   </si>
   <si>
@@ -117,15 +108,6 @@
     <t>{value_d3_2|&lt;MISSING&gt;}</t>
   </si>
   <si>
-    <t>{value_d3l_del_0|&lt;MISSING&gt;}</t>
-  </si>
-  <si>
-    <t>{value_d3l_del_1|&lt;MISSING&gt;}</t>
-  </si>
-  <si>
-    <t>{value_d3l_del_2|&lt;MISSING&gt;}</t>
-  </si>
-  <si>
     <t>Sample Type</t>
   </si>
   <si>
@@ -133,6 +115,24 @@
   </si>
   <si>
     <t>{sampleDate}</t>
+  </si>
+  <si>
+    <t>{value_covn1_0|&lt;ND&gt;|&lt;MISSING&gt;}</t>
+  </si>
+  <si>
+    <t>{value_covn1_1|&lt;ND&gt;|&lt;MISSING&gt;}</t>
+  </si>
+  <si>
+    <t>{value_covn1_2|&lt;ND&gt;|&lt;MISSING&gt;}</t>
+  </si>
+  <si>
+    <t>{value_d3l_del_0|&lt;ND&gt;|&lt;MISSING&gt;}</t>
+  </si>
+  <si>
+    <t>{value_d3l_del_1|&lt;ND&gt;|&lt;MISSING&gt;}</t>
+  </si>
+  <si>
+    <t>{value_d3l_del_2|&lt;ND&gt;|&lt;MISSING&gt;}</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
   <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -770,13 +770,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>18</v>
@@ -844,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>23</v>
@@ -854,13 +854,13 @@
         <v>#NAME?</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I3" s="4" t="str">
         <f>IF(ISNUMBER(F3), 2^-F3, "")</f>
@@ -883,13 +883,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="4" t="str">
         <f>IF(ISNUMBER(N3), 2^-N3, "")</f>
@@ -912,13 +912,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="X3" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y3" s="4" t="str">
         <f>IF(ISNUMBER(V3), 2^-V3, "")</f>
